--- a/data-web/dane_inkaso_vse.xlsx
+++ b/data-web/dane_inkaso_vse.xlsx
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>234454962976.56</v>
+        <v>236454962976.56</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
